--- a/Excel/SUM,SUMIF, and SUMPRODUCT.xlsx
+++ b/Excel/SUM,SUMIF, and SUMPRODUCT.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FOLDER MUTIARA\data science internship\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FOLDER MUTIARA\data science internship\data-science-journey\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D71CADEC-0915-4577-B709-F117071F8E1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23157FA5-F4BF-4A51-83A2-E8E0D4D1699B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{0DFBEA2F-A442-4CA9-A778-2E5AFB89EE2E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{0DFBEA2F-A442-4CA9-A778-2E5AFB89EE2E}"/>
   </bookViews>
   <sheets>
     <sheet name="Case1" sheetId="1" r:id="rId1"/>
     <sheet name="Case2" sheetId="2" r:id="rId2"/>
+    <sheet name="Case 3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="37">
   <si>
     <t>Nama</t>
   </si>
@@ -92,6 +93,51 @@
   </si>
   <si>
     <t>Penjualan</t>
+  </si>
+  <si>
+    <t>Kurir</t>
+  </si>
+  <si>
+    <t>Kota</t>
+  </si>
+  <si>
+    <t>Paket Dikirim</t>
+  </si>
+  <si>
+    <t>Biaya per Paket</t>
+  </si>
+  <si>
+    <t>Pendapatan</t>
+  </si>
+  <si>
+    <t>Rudi</t>
+  </si>
+  <si>
+    <t>Medan</t>
+  </si>
+  <si>
+    <t>Sari</t>
+  </si>
+  <si>
+    <t>Jakarta</t>
+  </si>
+  <si>
+    <t>Tono</t>
+  </si>
+  <si>
+    <t>Bandung</t>
+  </si>
+  <si>
+    <t>SUMPRODUCT</t>
+  </si>
+  <si>
+    <t>Pendapatan2</t>
+  </si>
+  <si>
+    <t>Biaya  per Paket</t>
+  </si>
+  <si>
+    <t>S</t>
   </si>
 </sst>
 </file>
@@ -135,7 +181,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -149,11 +195,64 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="12">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -173,16 +272,6 @@
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -197,12 +286,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D4957367-3D97-4B25-AB07-C6AE3EC2A392}" name="Table1" displayName="Table1" ref="A1:C7" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D4957367-3D97-4B25-AB07-C6AE3EC2A392}" name="Table1" displayName="Table1" ref="A1:C7" totalsRowShown="0" headerRowDxfId="11">
   <autoFilter ref="A1:C7" xr:uid="{D4957367-3D97-4B25-AB07-C6AE3EC2A392}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{F048B008-DA0E-4812-99CB-99171EA87EF8}" name="Produk" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{DBEEEFB3-7F7E-461E-B791-C714F9BED59E}" name="Penjualan (Rp)" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{09014491-9AE4-48CF-A6C0-52FB81CE609E}" name="Kategori" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{F048B008-DA0E-4812-99CB-99171EA87EF8}" name="Produk" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{DBEEEFB3-7F7E-461E-B791-C714F9BED59E}" name="Penjualan (Rp)" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{09014491-9AE4-48CF-A6C0-52FB81CE609E}" name="Kategori" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -216,6 +305,76 @@
     <tableColumn id="2" xr3:uid="{723BE7B5-DE8B-4E55-AD74-160B5C7DEC22}" name="Produk"/>
     <tableColumn id="3" xr3:uid="{07A2A1AC-63A5-4189-A0C2-04E500B85BE2}" name="Penjualan">
       <calculatedColumnFormula>SUMIF(Table1[Kategori], Table3[[#This Row],[Kategori]], Table1[Penjualan (Rp)])</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0DEA6AA6-8B9F-4FB9-A5C5-0830CD63BCC5}" name="Table33" displayName="Table33" ref="A15:C16" totalsRowShown="0">
+  <autoFilter ref="A15:C16" xr:uid="{0DEA6AA6-8B9F-4FB9-A5C5-0830CD63BCC5}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{B627BB16-F32B-4A9A-B4D4-5D6BE0DC45CE}" name="Kategori"/>
+    <tableColumn id="2" xr3:uid="{F4660FC6-A087-4E21-9209-5E374430CDD6}" name="Produk" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{3D493EB0-1B95-45E0-AE83-E71DCACF0DD1}" name="Penjualan">
+      <calculatedColumnFormula>SUMPRODUCT((Table1[[#All],[Kategori]]=Table33[[#This Row],[Kategori]])*(Table1[[#All],[Produk]]=Table33[[#This Row],[Produk]]), Table1[[#All],[Penjualan (Rp)]])</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{BCBED6B0-D40F-4C97-93B3-3B6CD0ECED1B}" name="Table4" displayName="Table4" ref="A1:E6" totalsRowShown="0" headerRowDxfId="2" dataDxfId="3">
+  <autoFilter ref="A1:E6" xr:uid="{BCBED6B0-D40F-4C97-93B3-3B6CD0ECED1B}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{EA372309-6B24-4FBF-920C-76F0F91C3C3A}" name="Kurir" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{E9F81335-C9AB-4011-BA4C-79604CF71656}" name="Kota" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{73BCFCA3-B5A7-45BF-8E93-86F28A52E449}" name="Paket Dikirim" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{759150DC-615E-4827-9E55-E68D440AA839}" name="Biaya per Paket" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{EF09093C-F46A-486F-9CFC-5F1D3ED250EF}" name="Pendapatan" dataDxfId="0">
+      <calculatedColumnFormula>Table4[[#This Row],[Paket Dikirim]]*D2</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{C7A0F6EB-EDDE-454A-9C2C-9FD43874730D}" name="Table6" displayName="Table6" ref="B8:C9" totalsRowShown="0">
+  <autoFilter ref="B8:C9" xr:uid="{C7A0F6EB-EDDE-454A-9C2C-9FD43874730D}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{8CEBD68A-7DA2-4F9A-B5F9-0A3758570EB4}" name="Kurir"/>
+    <tableColumn id="2" xr3:uid="{EF3B2CD5-75A7-4EF6-8570-8D8A6F068C73}" name="Pendapatan">
+      <calculatedColumnFormula>SUMPRODUCT((Table4[Kurir]=Table6[[#This Row],[Kurir]]) * Table4[Pendapatan])</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{341F9AF4-DDE0-4E58-AB4F-9C59E550D604}" name="Table68" displayName="Table68" ref="B11:C12" totalsRowShown="0">
+  <autoFilter ref="B11:C12" xr:uid="{341F9AF4-DDE0-4E58-AB4F-9C59E550D604}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{E3AF499B-A145-49D0-BFD7-EF5199BB5142}" name="Kota"/>
+    <tableColumn id="2" xr3:uid="{651790EE-E522-4FFD-AF43-E960B3CB0A22}" name="Pendapatan">
+      <calculatedColumnFormula>SUMPRODUCT((Table4[Kota]=Table68[[#This Row],[Kota]]) * Table4[Pendapatan])</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{5FC0E98B-35C0-4B20-ACE0-32864E2C964F}" name="Table689" displayName="Table689" ref="B14:D15" totalsRowShown="0">
+  <autoFilter ref="B14:D15" xr:uid="{5FC0E98B-35C0-4B20-ACE0-32864E2C964F}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{5D9E17E2-7F94-483D-8B2A-DDE52EAAD734}" name="Kurir"/>
+    <tableColumn id="2" xr3:uid="{FD6A695D-3E84-4406-9FCF-48E2CC729C9A}" name="Biaya  per Paket"/>
+    <tableColumn id="3" xr3:uid="{11FA11EC-FD3B-4701-A077-0E88E3011CEB}" name="Pendapatan2">
+      <calculatedColumnFormula>SUMPRODUCT((Table4[Kurir]= Table689[[#This Row],[Kurir]]) * (Table4[Biaya per Paket] = Table689[[#This Row],[Biaya  per Paket]]) * Table4[Pendapatan])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -519,9 +678,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AC6C824-2B74-48B4-9D79-89C9AFE3A7C1}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
@@ -622,6 +781,11 @@
         <v>3550000</v>
       </c>
     </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -629,10 +793,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3952EA28-ECBB-4766-8378-C9B4DB4BF91C}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -640,9 +804,10 @@
     <col min="1" max="1" width="24.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -653,7 +818,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -664,7 +829,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -675,7 +840,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -686,7 +851,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
@@ -697,7 +862,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
@@ -708,7 +873,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
@@ -719,7 +884,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -728,7 +893,7 @@
         <v>21300000</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -739,7 +904,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -748,11 +913,231 @@
         <v>21300000</v>
       </c>
     </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16">
+        <f>SUMPRODUCT((Table1[[#All],[Kategori]]=Table33[[#This Row],[Kategori]])*(Table1[[#All],[Produk]]=Table33[[#This Row],[Produk]]), Table1[[#All],[Penjualan (Rp)]])</f>
+        <v>9000000</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="2">
+  <tableParts count="3">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{150EFF55-F74C-43C2-B09A-111F3A11824B}">
+  <dimension ref="A1:E15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="1">
+        <v>25</v>
+      </c>
+      <c r="D2" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E2" s="1">
+        <f>Table4[[#This Row],[Paket Dikirim]]*D2</f>
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="1">
+        <v>30</v>
+      </c>
+      <c r="D3" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E3" s="1">
+        <f>Table4[[#This Row],[Paket Dikirim]]*D3</f>
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="1">
+        <v>15</v>
+      </c>
+      <c r="D4" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E4" s="1">
+        <f>Table4[[#This Row],[Paket Dikirim]]*D4</f>
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="1">
+        <v>20</v>
+      </c>
+      <c r="D5" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E5" s="1">
+        <f>Table4[[#This Row],[Paket Dikirim]]*D5</f>
+        <v>180000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="1">
+        <v>10</v>
+      </c>
+      <c r="D6" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E6" s="1">
+        <f>Table4[[#This Row],[Paket Dikirim]]*D6</f>
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9">
+        <f>SUMPRODUCT((Table4[Kurir]=Table6[[#This Row],[Kurir]]) * Table4[Pendapatan])</f>
+        <v>350000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12">
+        <f>SUMPRODUCT((Table4[Kota]=Table68[[#This Row],[Kota]]) * Table4[Pendapatan])</f>
+        <v>350000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="5">
+        <v>6000</v>
+      </c>
+      <c r="D15">
+        <f>SUMPRODUCT((Table4[Kurir]= Table689[[#This Row],[Kurir]]) * (Table4[Biaya per Paket] = Table689[[#This Row],[Biaya  per Paket]]) * Table4[Pendapatan])</f>
+        <v>150000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="4">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>